--- a/tk_vencimento_produtos/Dados.xlsx
+++ b/tk_vencimento_produtos/Dados.xlsx
@@ -459,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -752,10 +752,8 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>754</t>
-        </is>
+      <c r="A11" t="n">
+        <v>754</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -777,9 +775,39 @@
           <t>23/12/2023</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>50</t>
+      <c r="F11" t="n">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>gfhgh</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>fgff</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>23/08/2025</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>24/09/2025</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>12</t>
         </is>
       </c>
     </row>

--- a/tk_vencimento_produtos/Dados.xlsx
+++ b/tk_vencimento_produtos/Dados.xlsx
@@ -2,32 +2,31 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Produtos" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="3">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <name val="Calibri"/>
-      <b val="1"/>
-      <sz val="11"/>
     </font>
     <font>
       <b val="1"/>
@@ -41,27 +40,12 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -79,14 +63,12 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -159,7 +141,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -169,44 +151,44 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="1F497D"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="EEECE1"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="4F81BD"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="C0504D"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="9BBB59"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="8064A2"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="4BACC6"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="F79646"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="0000FF"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Times New Roman"/>
         <a:font script="Hebr" typeface="Times New Roman"/>
@@ -233,32 +215,14 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
-        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
         <a:font script="Hang" typeface="맑은 고딕"/>
-        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hans" typeface="宋体"/>
         <a:font script="Hant" typeface="新細明體"/>
         <a:font script="Arab" typeface="Arial"/>
         <a:font script="Hebr" typeface="Arial"/>
@@ -285,24 +249,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -314,142 +260,166 @@
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:lumMod val="110000"/>
-                <a:satMod val="105000"/>
-                <a:tint val="67000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="103000"/>
-                <a:tint val="73000"/>
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="105000"/>
-                <a:satMod val="109000"/>
-                <a:tint val="81000"/>
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="1"/>
         </a:gradFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:satMod val="103000"/>
-                <a:lumMod val="102000"/>
-                <a:tint val="94000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:satMod val="110000"/>
-                <a:lumMod val="100000"/>
-                <a:shade val="100000"/>
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:lumMod val="99000"/>
-                <a:satMod val="120000"/>
-                <a:shade val="78000"/>
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:lin ang="16200000" scaled="0"/>
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
         </a:ln>
       </a:lnStyleLst>
       <a:effectStyleLst>
         <a:effectStyle>
-          <a:effectLst/>
-        </a:effectStyle>
-        <a:effectStyle>
-          <a:effectLst/>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
               <a:srgbClr val="000000">
-                <a:alpha val="63000"/>
+                <a:alpha val="35000"/>
               </a:srgbClr>
             </a:outerShdw>
           </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
         </a:effectStyle>
       </a:effectStyleLst>
       <a:bgFillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
         </a:solidFill>
-        <a:solidFill>
-          <a:schemeClr val="phClr">
-            <a:tint val="95000"/>
-            <a:satMod val="170000"/>
-          </a:schemeClr>
-        </a:solidFill>
         <a:gradFill rotWithShape="1">
           <a:gsLst>
             <a:gs pos="0">
               <a:schemeClr val="phClr">
-                <a:tint val="93000"/>
-                <a:satMod val="150000"/>
-                <a:shade val="98000"/>
-                <a:lumMod val="102000"/>
-              </a:schemeClr>
-            </a:gs>
-            <a:gs pos="50000">
-              <a:schemeClr val="phClr">
-                <a:tint val="98000"/>
-                <a:satMod val="130000"/>
-                <a:shade val="90000"/>
-                <a:lumMod val="103000"/>
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
               </a:schemeClr>
             </a:gs>
             <a:gs pos="100000">
               <a:schemeClr val="phClr">
-                <a:shade val="63000"/>
-                <a:satMod val="120000"/>
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
               </a:schemeClr>
             </a:gs>
           </a:gsLst>
-          <a:lin ang="5400000" scaled="0"/>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
         </a:gradFill>
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
   <a:extraClrSchemeLst/>
-  <a:extLst>
-    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
-    </a:ext>
-  </a:extLst>
 </a:theme>
 </file>
 
@@ -459,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,32 +438,32 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="2" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Código Produto</t>
         </is>
       </c>
-      <c r="B1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Depatamento</t>
         </is>
       </c>
-      <c r="C1" s="2" t="inlineStr">
+      <c r="C1" s="1" t="inlineStr">
         <is>
           <t>Nome Produto</t>
         </is>
       </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="D1" s="1" t="inlineStr">
         <is>
           <t>Data Compra</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="E1" s="1" t="inlineStr">
         <is>
           <t>Validade</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>Quantidade</t>
         </is>
@@ -518,10 +488,8 @@
           <t>18/07/2023</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>12/08/2023</t>
-        </is>
+      <c r="E2" s="2" t="n">
+        <v>45150</v>
       </c>
       <c r="F2" t="n">
         <v>20</v>
@@ -546,10 +514,8 @@
           <t>18/07/2023</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>23/07/2023</t>
-        </is>
+      <c r="E3" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="F3" t="n">
         <v>30</v>
@@ -574,10 +540,8 @@
           <t>18/07/2023</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>19/07/2023</t>
-        </is>
+      <c r="E4" s="2" t="n">
+        <v>45126</v>
       </c>
       <c r="F4" t="n">
         <v>30</v>
@@ -602,10 +566,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>20/07/2023</t>
-        </is>
+      <c r="E5" s="2" t="n">
+        <v>45127</v>
       </c>
       <c r="F5" t="n">
         <v>20</v>
@@ -630,10 +592,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>23/08/2023</t>
-        </is>
+      <c r="E6" s="2" t="n">
+        <v>45161</v>
       </c>
       <c r="F6" t="n">
         <v>50</v>
@@ -658,10 +618,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>13/05/2023</t>
-        </is>
+      <c r="E7" s="2" t="n">
+        <v>45059</v>
       </c>
       <c r="F7" t="n">
         <v>40</v>
@@ -686,10 +644,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>20/01/2024</t>
-        </is>
+      <c r="E8" s="2" t="n">
+        <v>45311</v>
       </c>
       <c r="F8" t="n">
         <v>39</v>
@@ -714,10 +670,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>23/07/2023</t>
-        </is>
+      <c r="E9" s="2" t="n">
+        <v>45130</v>
       </c>
       <c r="F9" t="n">
         <v>20</v>
@@ -742,10 +696,8 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>20/05/2023</t>
-        </is>
+      <c r="E10" s="2" t="n">
+        <v>45066</v>
       </c>
       <c r="F10" t="n">
         <v>6</v>
@@ -770,44 +722,98 @@
           <t>19/07/2023</t>
         </is>
       </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>23/12/2023</t>
-        </is>
+      <c r="E11" s="2" t="n">
+        <v>45283</v>
       </c>
       <c r="F11" t="n">
         <v>50</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>44</t>
-        </is>
+      <c r="A12" t="n">
+        <v>567</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>gfhgh</t>
+          <t>Laranja</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>fgff</t>
+          <t>Laranja</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>23/08/2025</t>
+          <t>20/07/2025</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>24/09/2025</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>12</t>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="F12" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>567</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Laranja</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20/07/2025</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>15/11/2025</t>
+        </is>
+      </c>
+      <c r="F13" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>777</t>
+        </is>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>oladep</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>mamao</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>21/08/2025</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>30/04/2026</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>500</t>
         </is>
       </c>
     </row>
